--- a/biology/Botanique/Pommes_de_terre_répertoriées_dans_l'Arche_du_goût/Pommes_de_terre_répertoriées_dans_l'Arche_du_goût.xlsx
+++ b/biology/Botanique/Pommes_de_terre_répertoriées_dans_l'Arche_du_goût/Pommes_de_terre_répertoriées_dans_l'Arche_du_goût.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pommes_de_terre_r%C3%A9pertori%C3%A9es_dans_l%27Arche_du_go%C3%BBt</t>
+          <t>Pommes_de_terre_répertoriées_dans_l'Arche_du_goût</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pommes de terre répertoriées dans l'Arche du goût sont des productions locales traditionnelles de pomme de terre qui ont été retenues par les instances nationales de l'Arche du goût (fondation Slow Food) des pays concernés, pour assurer leur promotion et les sauver de l'extinction.
 Elles sont au nombre de huit (2012), listées dans le tableau ci-après.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pommes_de_terre_r%C3%A9pertori%C3%A9es_dans_l%27Arche_du_go%C3%BBt</t>
+          <t>Pommes_de_terre_répertoriées_dans_l'Arche_du_goût</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
